--- a/files/es.xlsx
+++ b/files/es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5662CE7-3729-4531-9865-5FABA5E16B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABE4AB-3162-46DB-B8B5-1C2F6FB38EF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>word</t>
   </si>
@@ -40,49 +40,70 @@
     <t>tags</t>
   </si>
   <si>
+    <t>cobrar?</t>
+  </si>
+  <si>
+    <t>apañar</t>
+  </si>
+  <si>
+    <t>comensales</t>
+  </si>
+  <si>
+    <t>hurtar</t>
+  </si>
+  <si>
+    <t>desprendimiento</t>
+  </si>
+  <si>
+    <t>Großzügigkeit</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
     <t>noun</t>
   </si>
   <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>neumático</t>
-  </si>
-  <si>
-    <t>Reifen</t>
-  </si>
-  <si>
-    <t>mudanza</t>
-  </si>
-  <si>
-    <t>Umzug</t>
+    <t>muela</t>
+  </si>
+  <si>
+    <t>Backenzahl</t>
   </si>
   <si>
     <t>[f]</t>
   </si>
   <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>tuerca</t>
-  </si>
-  <si>
-    <t>grilla</t>
-  </si>
-  <si>
-    <t>oruga</t>
-  </si>
-  <si>
-    <t>avispa</t>
-  </si>
-  <si>
-    <t>ciempiés</t>
-  </si>
-  <si>
-    <t>libélula</t>
-  </si>
-  <si>
-    <t>mariquita</t>
+    <t>tachar</t>
+  </si>
+  <si>
+    <t>(aus)streichen, (durch)streichen</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>cacahuete</t>
+  </si>
+  <si>
+    <t>tiritas</t>
+  </si>
+  <si>
+    <t>forofo</t>
+  </si>
+  <si>
+    <t>partitura</t>
+  </si>
+  <si>
+    <t>butaca</t>
+  </si>
+  <si>
+    <t>valoración</t>
+  </si>
+  <si>
+    <t>mostaza</t>
+  </si>
+  <si>
+    <t>aspirador</t>
   </si>
 </sst>
 </file>
@@ -193,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E11" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E16" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13812EEB-F3FB-46C0-9A1B-D7BB29D050E4}" name="word"/>
     <tableColumn id="2" xr3:uid="{ACFB1A50-7E09-4C61-87B9-EC6DD5A0D268}" name="translation"/>
@@ -469,18 +490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,70 +524,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/files/es.xlsx
+++ b/files/es.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABE4AB-3162-46DB-B8B5-1C2F6FB38EF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB5CFF-2BAC-435D-838D-6F3639726CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>word</t>
   </si>
@@ -39,83 +39,23 @@
   <si>
     <t>tags</t>
   </si>
-  <si>
-    <t>cobrar?</t>
-  </si>
-  <si>
-    <t>apañar</t>
-  </si>
-  <si>
-    <t>comensales</t>
-  </si>
-  <si>
-    <t>hurtar</t>
-  </si>
-  <si>
-    <t>desprendimiento</t>
-  </si>
-  <si>
-    <t>Großzügigkeit</t>
-  </si>
-  <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>muela</t>
-  </si>
-  <si>
-    <t>Backenzahl</t>
-  </si>
-  <si>
-    <t>[f]</t>
-  </si>
-  <si>
-    <t>tachar</t>
-  </si>
-  <si>
-    <t>(aus)streichen, (durch)streichen</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>cacahuete</t>
-  </si>
-  <si>
-    <t>tiritas</t>
-  </si>
-  <si>
-    <t>forofo</t>
-  </si>
-  <si>
-    <t>partitura</t>
-  </si>
-  <si>
-    <t>butaca</t>
-  </si>
-  <si>
-    <t>valoración</t>
-  </si>
-  <si>
-    <t>mostaza</t>
-  </si>
-  <si>
-    <t>aspirador</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,20 +100,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -214,14 +271,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E16" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:E2" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13812EEB-F3FB-46C0-9A1B-D7BB29D050E4}" name="word"/>
-    <tableColumn id="2" xr3:uid="{ACFB1A50-7E09-4C61-87B9-EC6DD5A0D268}" name="translation"/>
-    <tableColumn id="3" xr3:uid="{030A37C2-BEE3-423D-8BA2-AD6240871A20}" name="gender"/>
-    <tableColumn id="4" xr3:uid="{4A0EEBB4-8B67-43E0-8033-8A3EC082F661}" name="note"/>
-    <tableColumn id="5" xr3:uid="{CA13EAE9-981F-4AD5-8B02-EB1C27D7D870}" name="tags"/>
+    <tableColumn id="1" xr3:uid="{13812EEB-F3FB-46C0-9A1B-D7BB29D050E4}" name="word" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{ACFB1A50-7E09-4C61-87B9-EC6DD5A0D268}" name="translation" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{030A37C2-BEE3-423D-8BA2-AD6240871A20}" name="gender" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4A0EEBB4-8B67-43E0-8033-8A3EC082F661}" name="note" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CA13EAE9-981F-4AD5-8B02-EB1C27D7D870}" name="tags" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
@@ -522,106 +579,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/files/es.xlsx
+++ b/files/es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB5CFF-2BAC-435D-838D-6F3639726CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A9DB8-E7A5-4B38-84D1-59CFC3AF323F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="291">
   <si>
     <t>word</t>
   </si>
@@ -38,6 +38,864 @@
   </si>
   <si>
     <t>tags</t>
+  </si>
+  <si>
+    <t>seto</t>
+  </si>
+  <si>
+    <t>engreído</t>
+  </si>
+  <si>
+    <t>suntuosidad</t>
+  </si>
+  <si>
+    <t>fauces</t>
+  </si>
+  <si>
+    <t>impertérrito</t>
+  </si>
+  <si>
+    <t>puntapié</t>
+  </si>
+  <si>
+    <t>trucha</t>
+  </si>
+  <si>
+    <t>cremallera</t>
+  </si>
+  <si>
+    <t>alheña</t>
+  </si>
+  <si>
+    <t>cortacésped</t>
+  </si>
+  <si>
+    <t>tierno</t>
+  </si>
+  <si>
+    <t>antojo</t>
+  </si>
+  <si>
+    <t>manillar</t>
+  </si>
+  <si>
+    <t>ciénaga</t>
+  </si>
+  <si>
+    <t>remordimiento</t>
+  </si>
+  <si>
+    <t>follaje</t>
+  </si>
+  <si>
+    <t>ardid</t>
+  </si>
+  <si>
+    <t>bonachón</t>
+  </si>
+  <si>
+    <t>comadreja</t>
+  </si>
+  <si>
+    <t>butaca</t>
+  </si>
+  <si>
+    <t>jaleo</t>
+  </si>
+  <si>
+    <t>birrete</t>
+  </si>
+  <si>
+    <t>amatista</t>
+  </si>
+  <si>
+    <t>realce</t>
+  </si>
+  <si>
+    <t>barullo</t>
+  </si>
+  <si>
+    <t>incitación</t>
+  </si>
+  <si>
+    <t>carpa</t>
+  </si>
+  <si>
+    <t>vaqueros</t>
+  </si>
+  <si>
+    <t>cera</t>
+  </si>
+  <si>
+    <t>monedero</t>
+  </si>
+  <si>
+    <t>guardapelo</t>
+  </si>
+  <si>
+    <t>vasija</t>
+  </si>
+  <si>
+    <t>soborno</t>
+  </si>
+  <si>
+    <t>mohoso</t>
+  </si>
+  <si>
+    <t>rechinar</t>
+  </si>
+  <si>
+    <t>paradero</t>
+  </si>
+  <si>
+    <t>cincel</t>
+  </si>
+  <si>
+    <t>maraña</t>
+  </si>
+  <si>
+    <t>chatarra</t>
+  </si>
+  <si>
+    <t>resquicio</t>
+  </si>
+  <si>
+    <t>traqueteo</t>
+  </si>
+  <si>
+    <t>sigilo</t>
+  </si>
+  <si>
+    <t>estantería</t>
+  </si>
+  <si>
+    <t>sepulcral</t>
+  </si>
+  <si>
+    <t>lumbago</t>
+  </si>
+  <si>
+    <t>farol</t>
+  </si>
+  <si>
+    <t>duende</t>
+  </si>
+  <si>
+    <t>escurridizo</t>
+  </si>
+  <si>
+    <t>zopenco</t>
+  </si>
+  <si>
+    <t>parsimonia</t>
+  </si>
+  <si>
+    <t>cuello</t>
+  </si>
+  <si>
+    <t>remolino</t>
+  </si>
+  <si>
+    <t>maloliente</t>
+  </si>
+  <si>
+    <t>regadera</t>
+  </si>
+  <si>
+    <t>esmero</t>
+  </si>
+  <si>
+    <t>negrura</t>
+  </si>
+  <si>
+    <t>roble</t>
+  </si>
+  <si>
+    <t>charca</t>
+  </si>
+  <si>
+    <t>osadía</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>manotazo</t>
+  </si>
+  <si>
+    <t>dirigible</t>
+  </si>
+  <si>
+    <t>riachuelo</t>
+  </si>
+  <si>
+    <t>saúco</t>
+  </si>
+  <si>
+    <t>orilla</t>
+  </si>
+  <si>
+    <t>moraleja</t>
+  </si>
+  <si>
+    <t>tararear</t>
+  </si>
+  <si>
+    <t>artimaña</t>
+  </si>
+  <si>
+    <t>torbellino</t>
+  </si>
+  <si>
+    <t>mansedumbre</t>
+  </si>
+  <si>
+    <t>perdición</t>
+  </si>
+  <si>
+    <t>sopetón</t>
+  </si>
+  <si>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>ijada</t>
+  </si>
+  <si>
+    <t>ignominia</t>
+  </si>
+  <si>
+    <t>lienzo</t>
+  </si>
+  <si>
+    <t>pasadizo</t>
+  </si>
+  <si>
+    <t>campestre</t>
+  </si>
+  <si>
+    <t>necio</t>
+  </si>
+  <si>
+    <t>barahúnda</t>
+  </si>
+  <si>
+    <t>Zaun, Hecke</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>eingebildet, verwöhnt</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>Luxus, Üppigkeit</t>
+  </si>
+  <si>
+    <t>[f]</t>
+  </si>
+  <si>
+    <t>zancada</t>
+  </si>
+  <si>
+    <t>langer Schritt</t>
+  </si>
+  <si>
+    <t>macizar</t>
+  </si>
+  <si>
+    <t>ausstopfen, ausfüllen</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>arrinconado</t>
+  </si>
+  <si>
+    <t>abgelegen, vernachlässigt</t>
+  </si>
+  <si>
+    <t>arrinconar</t>
+  </si>
+  <si>
+    <t>beiseitelegen, in die Ecke stellen</t>
+  </si>
+  <si>
+    <t>Schlund, Rachen, Eckzähne</t>
+  </si>
+  <si>
+    <t>regocijar</t>
+  </si>
+  <si>
+    <t>sich freuen, Spaß haben</t>
+  </si>
+  <si>
+    <t>unerschrocken, furchtlos</t>
+  </si>
+  <si>
+    <t>Fußtritt</t>
+  </si>
+  <si>
+    <t>cachivache</t>
+  </si>
+  <si>
+    <t>Trottel</t>
+  </si>
+  <si>
+    <t>desperdiciar</t>
+  </si>
+  <si>
+    <t>verpassen, verschwenden</t>
+  </si>
+  <si>
+    <t>necrológico</t>
+  </si>
+  <si>
+    <t>Todes-, Todesanzeige</t>
+  </si>
+  <si>
+    <t>Ganove</t>
+  </si>
+  <si>
+    <t>Reißverschluss</t>
+  </si>
+  <si>
+    <t>Henna</t>
+  </si>
+  <si>
+    <t>Rasenmäher</t>
+  </si>
+  <si>
+    <t>chuchería</t>
+  </si>
+  <si>
+    <t>Leckerei, Süßigkeit</t>
+  </si>
+  <si>
+    <t>zanjón</t>
+  </si>
+  <si>
+    <t>Abgrund</t>
+  </si>
+  <si>
+    <t>zart, sanft</t>
+  </si>
+  <si>
+    <t>Laune, Gelüste</t>
+  </si>
+  <si>
+    <t>acorralar</t>
+  </si>
+  <si>
+    <t>einpferchen, einkreisen</t>
+  </si>
+  <si>
+    <t>señuelo</t>
+  </si>
+  <si>
+    <t>Lockvogel, Köder</t>
+  </si>
+  <si>
+    <t>escoltar</t>
+  </si>
+  <si>
+    <t>geleiten, eskortieren</t>
+  </si>
+  <si>
+    <t>Lenker</t>
+  </si>
+  <si>
+    <t>Morast</t>
+  </si>
+  <si>
+    <t>Gewissensbiss</t>
+  </si>
+  <si>
+    <t>ileso</t>
+  </si>
+  <si>
+    <t>unverletzt, unversehrt</t>
+  </si>
+  <si>
+    <t>convalecer</t>
+  </si>
+  <si>
+    <t>sich erholen, genesen</t>
+  </si>
+  <si>
+    <t>Laubwerk, Blätter</t>
+  </si>
+  <si>
+    <t>List, Kniff</t>
+  </si>
+  <si>
+    <t>Besteck</t>
+  </si>
+  <si>
+    <t>cubertería</t>
+  </si>
+  <si>
+    <t>gutmütig, leichtgläubig</t>
+  </si>
+  <si>
+    <t>Wiesel</t>
+  </si>
+  <si>
+    <t>kleiner Sessel</t>
+  </si>
+  <si>
+    <t>ataviar</t>
+  </si>
+  <si>
+    <t>herausputzen, schmücken</t>
+  </si>
+  <si>
+    <t>Lärm, Krach</t>
+  </si>
+  <si>
+    <t>bizcar</t>
+  </si>
+  <si>
+    <t>schielen</t>
+  </si>
+  <si>
+    <t>Barett</t>
+  </si>
+  <si>
+    <t>ramillete</t>
+  </si>
+  <si>
+    <t>Blumengeschenk, Strauß</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Glanz, Betonung</t>
+  </si>
+  <si>
+    <t>Tumult</t>
+  </si>
+  <si>
+    <t>Anstiftung</t>
+  </si>
+  <si>
+    <t>incitar</t>
+  </si>
+  <si>
+    <t>anstiften</t>
+  </si>
+  <si>
+    <t>seso</t>
+  </si>
+  <si>
+    <t>Gehirn, Verstand</t>
+  </si>
+  <si>
+    <t>Karpfen, Zelt</t>
+  </si>
+  <si>
+    <t>cochambre</t>
+  </si>
+  <si>
+    <t>Dreck</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>tétrico</t>
+  </si>
+  <si>
+    <t>trübsinnig, düster</t>
+  </si>
+  <si>
+    <t>telaraña</t>
+  </si>
+  <si>
+    <t>Spinnennetz</t>
+  </si>
+  <si>
+    <t>embrujo</t>
+  </si>
+  <si>
+    <t>Zauber, Verhexung</t>
+  </si>
+  <si>
+    <t>atisbar</t>
+  </si>
+  <si>
+    <t>erspähen</t>
+  </si>
+  <si>
+    <t>Wachs</t>
+  </si>
+  <si>
+    <t>resecar</t>
+  </si>
+  <si>
+    <t>austrocknen</t>
+  </si>
+  <si>
+    <t>Geldbeutel</t>
+  </si>
+  <si>
+    <t>Medaillon</t>
+  </si>
+  <si>
+    <t>Gefäß</t>
+  </si>
+  <si>
+    <t>Bestechung</t>
+  </si>
+  <si>
+    <t>sobornar</t>
+  </si>
+  <si>
+    <t>bestechen</t>
+  </si>
+  <si>
+    <t>schimmelig, verschimmelt</t>
+  </si>
+  <si>
+    <t>knirschen, knarren</t>
+  </si>
+  <si>
+    <t>Rastplatz, Verbleib</t>
+  </si>
+  <si>
+    <t>Meißel</t>
+  </si>
+  <si>
+    <t>Gestrüpp, Wirrwarr</t>
+  </si>
+  <si>
+    <t>Schlacke, Schrott</t>
+  </si>
+  <si>
+    <t>fisgonear</t>
+  </si>
+  <si>
+    <t>herumschnüffeln</t>
+  </si>
+  <si>
+    <t>resquebrajar</t>
+  </si>
+  <si>
+    <t>spalten, ritzen</t>
+  </si>
+  <si>
+    <t>Ritze, Spalt</t>
+  </si>
+  <si>
+    <t>trono</t>
+  </si>
+  <si>
+    <t>Thron</t>
+  </si>
+  <si>
+    <t>labrado</t>
+  </si>
+  <si>
+    <t>Bearbeitung, Bestellung, Arbeit</t>
+  </si>
+  <si>
+    <t>Krach, Klappern</t>
+  </si>
+  <si>
+    <t>congojar</t>
+  </si>
+  <si>
+    <t>bekümmern, verunsichern</t>
+  </si>
+  <si>
+    <t>merodear</t>
+  </si>
+  <si>
+    <t>plündern, marodieren</t>
+  </si>
+  <si>
+    <t>Verschwiegenheit, Geheimnis</t>
+  </si>
+  <si>
+    <t>cosquillear</t>
+  </si>
+  <si>
+    <t>kitzeln</t>
+  </si>
+  <si>
+    <t>Regal</t>
+  </si>
+  <si>
+    <t>Grab-</t>
+  </si>
+  <si>
+    <t>gozne</t>
+  </si>
+  <si>
+    <t>Scharnier, Türangel</t>
+  </si>
+  <si>
+    <t>centinela</t>
+  </si>
+  <si>
+    <t>Wächter</t>
+  </si>
+  <si>
+    <t>Hexenschuss, Lumbago</t>
+  </si>
+  <si>
+    <t>acongojar</t>
+  </si>
+  <si>
+    <t>bekümmern, bedrücken</t>
+  </si>
+  <si>
+    <t>Laterne</t>
+  </si>
+  <si>
+    <t>seta</t>
+  </si>
+  <si>
+    <t>Pilz</t>
+  </si>
+  <si>
+    <t>hosco</t>
+  </si>
+  <si>
+    <t>mürrisch, düster</t>
+  </si>
+  <si>
+    <t>Kobold</t>
+  </si>
+  <si>
+    <t>glatt, rutschig</t>
+  </si>
+  <si>
+    <t>dumm, doof</t>
+  </si>
+  <si>
+    <t>bobo</t>
+  </si>
+  <si>
+    <t>dumm, albern</t>
+  </si>
+  <si>
+    <t>Ruhe, Sparsamkeit</t>
+  </si>
+  <si>
+    <t>Hals, Kragen</t>
+  </si>
+  <si>
+    <t>lápida</t>
+  </si>
+  <si>
+    <t>Steintafel, Grabstein</t>
+  </si>
+  <si>
+    <t>apretar</t>
+  </si>
+  <si>
+    <t>drücken, schlimmer werden</t>
+  </si>
+  <si>
+    <t>Wirbel, Strudel</t>
+  </si>
+  <si>
+    <t>stinkend, übel riechend</t>
+  </si>
+  <si>
+    <t>impoluto</t>
+  </si>
+  <si>
+    <t>rein, makellos</t>
+  </si>
+  <si>
+    <t>Gießkanne, Dusche</t>
+  </si>
+  <si>
+    <t>estrujar</t>
+  </si>
+  <si>
+    <t>pressen, zerdrücken</t>
+  </si>
+  <si>
+    <t>Sorgfalt, Genauigkeit</t>
+  </si>
+  <si>
+    <t>esmerar</t>
+  </si>
+  <si>
+    <t>polieren</t>
+  </si>
+  <si>
+    <t>Schwärze</t>
+  </si>
+  <si>
+    <t>Eiche</t>
+  </si>
+  <si>
+    <t>centelleo</t>
+  </si>
+  <si>
+    <t>Funkeln, Glänzen</t>
+  </si>
+  <si>
+    <t>Tümpel</t>
+  </si>
+  <si>
+    <t>Wagemut, Kühnheit</t>
+  </si>
+  <si>
+    <t>Gemüt, Laune</t>
+  </si>
+  <si>
+    <t>Schlag</t>
+  </si>
+  <si>
+    <t>lenkbar, steuerbar</t>
+  </si>
+  <si>
+    <t>Bach</t>
+  </si>
+  <si>
+    <t>Holunder</t>
+  </si>
+  <si>
+    <t>Kante, Rand, Ufer</t>
+  </si>
+  <si>
+    <t>Moral</t>
+  </si>
+  <si>
+    <t>calzoncillo</t>
+  </si>
+  <si>
+    <t>Herrenunterhose</t>
+  </si>
+  <si>
+    <t>chamuscado</t>
+  </si>
+  <si>
+    <t>gesengt, versengt</t>
+  </si>
+  <si>
+    <t>chamuscar</t>
+  </si>
+  <si>
+    <t>sengen, absengen</t>
+  </si>
+  <si>
+    <t>pocilga</t>
+  </si>
+  <si>
+    <t>Schweinestall</t>
+  </si>
+  <si>
+    <t>borroso</t>
+  </si>
+  <si>
+    <t>verschwommen, undeutlich</t>
+  </si>
+  <si>
+    <t>concha</t>
+  </si>
+  <si>
+    <t>Muschel, Schale</t>
+  </si>
+  <si>
+    <t>sedoso</t>
+  </si>
+  <si>
+    <t>seiden, seidig</t>
+  </si>
+  <si>
+    <t>trällern, summen</t>
+  </si>
+  <si>
+    <t>Wirbel</t>
+  </si>
+  <si>
+    <t>acuciante</t>
+  </si>
+  <si>
+    <t>dringend</t>
+  </si>
+  <si>
+    <t>tabla</t>
+  </si>
+  <si>
+    <t>Brett, Planke, Tafel</t>
+  </si>
+  <si>
+    <t>Sanftmut, Gehorsam</t>
+  </si>
+  <si>
+    <t>Verlust, Verderben</t>
+  </si>
+  <si>
+    <t>Ohrfeige, Schlag</t>
+  </si>
+  <si>
+    <t>púa</t>
+  </si>
+  <si>
+    <t>Stachel, Plektrum</t>
+  </si>
+  <si>
+    <t>Henkel, Griff</t>
+  </si>
+  <si>
+    <t>Flanke, Weiche</t>
+  </si>
+  <si>
+    <t>Schande</t>
+  </si>
+  <si>
+    <t>canalla</t>
+  </si>
+  <si>
+    <t>Schurke, Schuft</t>
+  </si>
+  <si>
+    <t>Leinen, Leinwand</t>
+  </si>
+  <si>
+    <t>Durchgang, Passage</t>
+  </si>
+  <si>
+    <t>Land-</t>
+  </si>
+  <si>
+    <t>ahuecar</t>
+  </si>
+  <si>
+    <t>aushöhlen, auflockern</t>
+  </si>
+  <si>
+    <t>losa</t>
+  </si>
+  <si>
+    <t>Steinplatte, Grabstein</t>
+  </si>
+  <si>
+    <t>losar</t>
+  </si>
+  <si>
+    <t>fliesen</t>
+  </si>
+  <si>
+    <t>dumm, töricht</t>
+  </si>
+  <si>
+    <t>Tumult, Radau</t>
   </si>
 </sst>
 </file>
@@ -111,7 +969,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -271,14 +1149,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:E2" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF63DEC-5900-4353-8904-279786FCF7D0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:E142" xr:uid="{B1DBE0D5-D96A-41DF-AA0B-B356DE909729}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13812EEB-F3FB-46C0-9A1B-D7BB29D050E4}" name="word" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{ACFB1A50-7E09-4C61-87B9-EC6DD5A0D268}" name="translation" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{030A37C2-BEE3-423D-8BA2-AD6240871A20}" name="gender" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4A0EEBB4-8B67-43E0-8033-8A3EC082F661}" name="note" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CA13EAE9-981F-4AD5-8B02-EB1C27D7D870}" name="tags" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{13812EEB-F3FB-46C0-9A1B-D7BB29D050E4}" name="word" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{ACFB1A50-7E09-4C61-87B9-EC6DD5A0D268}" name="translation" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{030A37C2-BEE3-423D-8BA2-AD6240871A20}" name="gender" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4A0EEBB4-8B67-43E0-8033-8A3EC082F661}" name="note" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{CA13EAE9-981F-4AD5-8B02-EB1C27D7D870}" name="tags" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,15 +1458,2027 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A142">
+    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
